--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8052596666666667</v>
+        <v>0.259369</v>
       </c>
       <c r="N2">
-        <v>2.415779</v>
+        <v>0.778107</v>
       </c>
       <c r="O2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="P2">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="Q2">
-        <v>0.520390470146889</v>
+        <v>0.04245049194833334</v>
       </c>
       <c r="R2">
-        <v>4.683514231322</v>
+        <v>0.382054427535</v>
       </c>
       <c r="S2">
-        <v>0.004200832588484367</v>
+        <v>0.0004442041434256985</v>
       </c>
       <c r="T2">
-        <v>0.004200832588484367</v>
+        <v>0.0004442041434256985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.054489</v>
       </c>
       <c r="O3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="P3">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="Q3">
-        <v>1.950455645011334</v>
+        <v>0.4939777079383333</v>
       </c>
       <c r="R3">
-        <v>17.554100805102</v>
+        <v>4.445799371445</v>
       </c>
       <c r="S3">
-        <v>0.01574498017545198</v>
+        <v>0.005169008286010033</v>
       </c>
       <c r="T3">
-        <v>0.01574498017545199</v>
+        <v>0.005169008286010034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.812615666666666</v>
+        <v>1.767033</v>
       </c>
       <c r="N4">
-        <v>8.437847</v>
+        <v>5.301099</v>
       </c>
       <c r="O4">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="P4">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="Q4">
-        <v>1.817622873349556</v>
+        <v>0.289207346055</v>
       </c>
       <c r="R4">
-        <v>16.358605860146</v>
+        <v>2.602866114495</v>
       </c>
       <c r="S4">
-        <v>0.01467269259905192</v>
+        <v>0.003026280627869722</v>
       </c>
       <c r="T4">
-        <v>0.01467269259905192</v>
+        <v>0.003026280627869723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8052596666666667</v>
+        <v>0.259369</v>
       </c>
       <c r="N5">
-        <v>2.415779</v>
+        <v>0.778107</v>
       </c>
       <c r="O5">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="P5">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="Q5">
-        <v>12.33885375715133</v>
+        <v>3.974266056794001</v>
       </c>
       <c r="R5">
-        <v>111.049683814362</v>
+        <v>35.76839451114601</v>
       </c>
       <c r="S5">
-        <v>0.0996049350268717</v>
+        <v>0.04158692558033639</v>
       </c>
       <c r="T5">
-        <v>0.0996049350268717</v>
+        <v>0.04158692558033639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.054489</v>
       </c>
       <c r="O6">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="P6">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="Q6">
-        <v>46.24678648863799</v>
+        <v>46.246786488638</v>
       </c>
       <c r="R6">
-        <v>416.221078397742</v>
+        <v>416.2210783977421</v>
       </c>
       <c r="S6">
-        <v>0.3733254525958394</v>
+        <v>0.4839287658522213</v>
       </c>
       <c r="T6">
-        <v>0.3733254525958395</v>
+        <v>0.4839287658522214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.812615666666666</v>
+        <v>1.767033</v>
       </c>
       <c r="N7">
-        <v>8.437847</v>
+        <v>5.301099</v>
       </c>
       <c r="O7">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="P7">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="Q7">
-        <v>43.09722046520733</v>
+        <v>27.075939195258</v>
       </c>
       <c r="R7">
-        <v>387.874984186866</v>
+        <v>243.683452757322</v>
       </c>
       <c r="S7">
-        <v>0.3479006987815045</v>
+        <v>0.2833240281953454</v>
       </c>
       <c r="T7">
-        <v>0.3479006987815045</v>
+        <v>0.2833240281953454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8052596666666667</v>
+        <v>0.259369</v>
       </c>
       <c r="N8">
-        <v>2.415779</v>
+        <v>0.778107</v>
       </c>
       <c r="O8">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="P8">
-        <v>0.121346445909118</v>
+        <v>0.0514155333512404</v>
       </c>
       <c r="Q8">
-        <v>2.172903021417333</v>
+        <v>0.8968231308153335</v>
       </c>
       <c r="R8">
-        <v>19.556127192756</v>
+        <v>8.071408177338</v>
       </c>
       <c r="S8">
-        <v>0.01754067829376189</v>
+        <v>0.009384403627478315</v>
       </c>
       <c r="T8">
-        <v>0.01754067829376189</v>
+        <v>0.009384403627478314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.054489</v>
       </c>
       <c r="O9">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="P9">
-        <v>0.4548139791235885</v>
+        <v>0.5982999525231611</v>
       </c>
       <c r="Q9">
-        <v>8.144174821244</v>
+        <v>10.43593641094733</v>
       </c>
       <c r="R9">
-        <v>73.29757339119601</v>
+        <v>93.923427698526</v>
       </c>
       <c r="S9">
-        <v>0.06574354635229702</v>
+        <v>0.1092021783849297</v>
       </c>
       <c r="T9">
-        <v>0.06574354635229704</v>
+        <v>0.1092021783849297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.812615666666666</v>
+        <v>1.767033</v>
       </c>
       <c r="N10">
-        <v>8.437847</v>
+        <v>5.301099</v>
       </c>
       <c r="O10">
-        <v>0.4238395749672935</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="P10">
-        <v>0.4238395749672934</v>
+        <v>0.3502845141255985</v>
       </c>
       <c r="Q10">
-        <v>7.589528363545333</v>
+        <v>6.109890030474</v>
       </c>
       <c r="R10">
-        <v>68.305755271908</v>
+        <v>54.989010274266</v>
       </c>
       <c r="S10">
-        <v>0.06126618358673697</v>
+        <v>0.06393420530238342</v>
       </c>
       <c r="T10">
-        <v>0.06126618358673697</v>
+        <v>0.06393420530238342</v>
       </c>
     </row>
   </sheetData>
